--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2377943.328528571</v>
+        <v>-2380557.607145023</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15874768.22091156</v>
+        <v>15874768.22091157</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783173</v>
+        <v>41.28636902348831</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>104.2459956392789</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674306</v>
+        <v>14.08691327674305</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>100.3033462869333</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792917</v>
+        <v>94.83943180792916</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>7.701696352469668</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2190043347733</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>195.0895680731931</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5748211465602</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>301.7248287451639</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>168.8885499332614</v>
+        <v>121.1260042885582</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.4384179530389</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>87.56115536271672</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7671037116294</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>218.5331130868036</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144412</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076761</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922735</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>26.0704644423152</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576142</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222822</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487356</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456778</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>176.7621441121402</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>54.10799870228374</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8784673763394</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>123.7971820797016</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261727</v>
@@ -2722,10 +2722,10 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.741638509604</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545297</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.777807337106</v>
+        <v>1225.788605320334</v>
       </c>
       <c r="C2" t="n">
-        <v>1629.777807337106</v>
+        <v>856.8260883799219</v>
       </c>
       <c r="D2" t="n">
-        <v>1271.512108730356</v>
+        <v>498.5603897731714</v>
       </c>
       <c r="E2" t="n">
-        <v>885.7238561321121</v>
+        <v>112.7721371749271</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7379513425046</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="G2" t="n">
-        <v>59.36965571178318</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178318</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178318</v>
+        <v>59.3696557117832</v>
       </c>
       <c r="J2" t="n">
         <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.574560644744</v>
+        <v>520.5745606447445</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185029</v>
+        <v>925.8512030185034</v>
       </c>
       <c r="M2" t="n">
         <v>1408.468993552358</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877249</v>
+        <v>1903.50985287725</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384226</v>
+        <v>2357.627637384227</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2710.705659215712</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719473</v>
+        <v>2927.679802719475</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589159</v>
+        <v>2968.48278558916</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338333</v>
+        <v>2926.779382535131</v>
       </c>
       <c r="T2" t="n">
-        <v>2851.450538338333</v>
+        <v>2926.779382535131</v>
       </c>
       <c r="U2" t="n">
-        <v>2851.450538338333</v>
+        <v>2673.22523817091</v>
       </c>
       <c r="V2" t="n">
-        <v>2746.151552844112</v>
+        <v>2342.162350827339</v>
       </c>
       <c r="W2" t="n">
-        <v>2393.382897573998</v>
+        <v>1989.393695557225</v>
       </c>
       <c r="X2" t="n">
-        <v>2019.917139312918</v>
+        <v>1615.927937296145</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.777807337106</v>
+        <v>1225.788605320334</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400832</v>
+        <v>1341.528820902748</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589562</v>
+        <v>1167.075791621621</v>
       </c>
       <c r="D3" t="n">
-        <v>607.922920397705</v>
+        <v>1018.141381960369</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922495</v>
+        <v>858.9039269549137</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191345</v>
+        <v>712.3693689817986</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>575.8479775299325</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182668</v>
+        <v>483.8173226044909</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178318</v>
+        <v>469.5881172744474</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148952</v>
+        <v>548.6079372775595</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168903</v>
+        <v>1001.568037510601</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671329</v>
+        <v>1334.580805460844</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1742.547866633525</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324652</v>
+        <v>2175.721246887317</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769182</v>
+        <v>2549.770467331847</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2830.644877257093</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.48278558916</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.48278558916</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2836.104707899346</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2642.823682619126</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2414.745421853247</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.374852058839</v>
+        <v>2179.593313621504</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>1925.355956893302</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1717.50445668777</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1509.744157922816</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.6058476053652</v>
+        <v>1950.714042062471</v>
       </c>
       <c r="C4" t="n">
-        <v>605.6058476053652</v>
+        <v>1950.714042062471</v>
       </c>
       <c r="D4" t="n">
-        <v>455.4892081930294</v>
+        <v>1800.597402650136</v>
       </c>
       <c r="E4" t="n">
-        <v>307.5761146106363</v>
+        <v>1652.684309067743</v>
       </c>
       <c r="F4" t="n">
-        <v>160.686167112726</v>
+        <v>1505.794361569832</v>
       </c>
       <c r="G4" t="n">
-        <v>160.686167112726</v>
+        <v>1337.958818848988</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>1337.958818848988</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178318</v>
+        <v>1236.642307448046</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538946001</v>
+        <v>1272.569327125722</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>1461.445293514083</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>1758.667937374891</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945959</v>
+        <v>2082.436664730859</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.66886009458</v>
+        <v>2403.941511830843</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>2684.886979680608</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>2901.763680026544</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852897</v>
+        <v>2968.48278558916</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>2872.685379722565</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>2864.905888457444</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493185</v>
+        <v>2642.572256073202</v>
       </c>
       <c r="U4" t="n">
-        <v>1212.304033104524</v>
+        <v>2642.572256073202</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.304033104524</v>
+        <v>2642.572256073202</v>
       </c>
       <c r="W4" t="n">
-        <v>1015.243863333622</v>
+        <v>2353.155086036241</v>
       </c>
       <c r="X4" t="n">
-        <v>787.2543124356049</v>
+        <v>2353.155086036241</v>
       </c>
       <c r="Y4" t="n">
-        <v>787.2543124356049</v>
+        <v>2132.362506892711</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204826</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204826</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1666.869595963939</v>
+        <v>1715.114591564649</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.102980533465</v>
+        <v>1493.347976134175</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.000113659108</v>
+        <v>1204.245109259818</v>
       </c>
       <c r="V7" t="n">
-        <v>1156.000113659108</v>
+        <v>1204.245109259818</v>
       </c>
       <c r="W7" t="n">
-        <v>866.5829436221477</v>
+        <v>1204.245109259818</v>
       </c>
       <c r="X7" t="n">
-        <v>638.5933927241304</v>
+        <v>976.255558361801</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>976.255558361801</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308158</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760996</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3126.869541658774</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2795.806654315204</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2443.037999045089</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.00073137228</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1425.037688403349</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1425.037688403349</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>1425.037688403349</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>1197.048137505331</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>976.255558361801</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362665</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239594</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397178</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397178</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703113</v>
+        <v>1098.667160263531</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424044</v>
+        <v>929.7309773356242</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232884</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408953</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429849</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135318</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135318</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138414</v>
+        <v>1501.108204237301</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703113</v>
+        <v>1280.315625093771</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>653.747479770887</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261841</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138483</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1284.178074642675</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>835.3959446011268</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400711</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646413</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511909</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>779.614337923284</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>779.614337923284</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408908</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
@@ -5947,13 +5947,13 @@
         <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400703</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400703</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576772</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576772</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725571</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138405</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547835</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384012</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311325</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
         <v>782.551295565682</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,22 +7154,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7339,16 +7339,16 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
         <v>898.265941231132</v>
@@ -7579,19 +7579,19 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525719</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525722</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447089</v>
+        <v>9.872575263447061</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>297.607293590734</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>74.57555575482903</v>
       </c>
       <c r="T2" t="n">
         <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>223.506262830856</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>145.9230939674644</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.356907245717</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>91.43343026339792</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744475</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>226.0671788815128</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434095</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405085</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345295002</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>75.37549921168781</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>232.4149996343073</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626857</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.4162454698846</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185656</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194304</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143664</v>
+        <v>32460.91116143663</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="G2" t="n">
         <v>40357.32998450031</v>
       </c>
-      <c r="F2" t="n">
-        <v>40357.32998450032</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.32998450032</v>
-      </c>
       <c r="H2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321419</v>
@@ -26341,7 +26341,7 @@
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
         <v>41052.0884932142</v>
@@ -26350,10 +26350,10 @@
         <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973033</v>
+        <v>95186.49343973015</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>213599.1454818043</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359953</v>
+        <v>22978.01038359955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>15667.67952732123</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.03225179352</v>
-      </c>
       <c r="J4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488695</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="M4" t="n">
+        <v>19157.89151488698</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19157.891514887</v>
+      </c>
+      <c r="O4" t="n">
         <v>19157.89151488696</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.89151488701</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312744.247558333</v>
+        <v>-1313173.806424922</v>
       </c>
       <c r="C6" t="n">
-        <v>-252422.4125310543</v>
+        <v>-252422.4125310541</v>
       </c>
       <c r="D6" t="n">
-        <v>-157235.919091324</v>
+        <v>-157235.9190913239</v>
       </c>
       <c r="E6" t="n">
-        <v>-397344.6938985556</v>
+        <v>-397379.4318239907</v>
       </c>
       <c r="F6" t="n">
-        <v>-71932.23209120028</v>
+        <v>-71966.97001663606</v>
       </c>
       <c r="G6" t="n">
-        <v>-71932.23209120026</v>
+        <v>-71966.97001663604</v>
       </c>
       <c r="H6" t="n">
-        <v>-71932.23209120032</v>
+        <v>-71966.97001663609</v>
       </c>
       <c r="I6" t="n">
-        <v>-71932.23209120029</v>
+        <v>-71966.97001663604</v>
       </c>
       <c r="J6" t="n">
         <v>-294869.0643573925</v>
@@ -26549,19 +26549,19 @@
         <v>-104247.9292591877</v>
       </c>
       <c r="L6" t="n">
-        <v>-81269.91887558818</v>
+        <v>-81269.91887558819</v>
       </c>
       <c r="M6" t="n">
-        <v>-166324.9468111</v>
+        <v>-166324.9468110999</v>
       </c>
       <c r="N6" t="n">
         <v>-81269.91887558819</v>
       </c>
       <c r="O6" t="n">
-        <v>-100697.63686922</v>
+        <v>-100697.6368692199</v>
       </c>
       <c r="P6" t="n">
-        <v>-81269.91887558819</v>
+        <v>-81269.91887558825</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972897</v>
+        <v>742.12069639729</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396938</v>
+        <v>72.85564646396915</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972897</v>
+        <v>742.12069639729</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500278</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972897</v>
+        <v>742.12069639729</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500278</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972897</v>
+        <v>742.12069639729</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500278</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244473</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>84.51310991088968</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.88047539818049</v>
+        <v>68.64302104288373</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192229</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>163.4340165961852</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841794</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>67.6787251188093</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-3.689546683711769e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.913349478854798e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720917</v>
+        <v>4.088124840720918</v>
       </c>
       <c r="H2" t="n">
-        <v>41.8675085250331</v>
+        <v>41.86750852503312</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31051,37 +31051,37 @@
         <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078538</v>
+        <v>520.0248102078539</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020666</v>
+        <v>645.1367608020669</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382373</v>
+        <v>717.8389509382374</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419357</v>
+        <v>729.4543356419358</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570169</v>
+        <v>688.8030442570172</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517193</v>
+        <v>587.8774622517194</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934013</v>
+        <v>441.4714913934014</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.158144807928</v>
+        <v>93.15814480792801</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025582</v>
+        <v>17.89576649025583</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576733</v>
+        <v>0.3270499872576734</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863085</v>
+        <v>2.187339625863086</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030927</v>
+        <v>21.12509586030928</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467202</v>
+        <v>75.30971957467203</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698102</v>
@@ -31133,19 +31133,19 @@
         <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629475</v>
+        <v>474.9309130629476</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004842</v>
+        <v>554.2219745004843</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265574</v>
+        <v>568.8905810265575</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429594</v>
+        <v>520.4237398429595</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913465</v>
+        <v>417.6859325913466</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224528</v>
@@ -31154,10 +31154,10 @@
         <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092175</v>
+        <v>40.62887419092176</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404273</v>
+        <v>8.816513667404275</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541504</v>
@@ -31203,40 +31203,40 @@
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032493</v>
+        <v>55.14712864032494</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6490989830129</v>
+        <v>129.649098983013</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585708</v>
+        <v>213.0532962585709</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283778</v>
+        <v>272.6348675283779</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795412</v>
+        <v>287.4552415795413</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288361</v>
+        <v>280.6201984288362</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443083</v>
+        <v>259.1981729443084</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219112</v>
+        <v>221.7888148219113</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924031</v>
+        <v>82.45395956924033</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878562</v>
+        <v>31.95799443878563</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881712</v>
+        <v>7.835293367881714</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>518.00096901132</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130326</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393211</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.928581173451</v>
+        <v>165.9285811734511</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628732</v>
+        <v>299.9349591628733</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320794</v>
+        <v>409.3703458320796</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109646</v>
+        <v>487.4927177109647</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453448</v>
+        <v>500.0412720453449</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353302</v>
+        <v>458.7048328353304</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964498</v>
+        <v>356.6444664964499</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189518</v>
+        <v>219.1658015189519</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180344</v>
+        <v>41.2151342118035</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314348</v>
+        <v>79.81800000314354</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>457.5354547808498</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830733</v>
+        <v>336.3765332830734</v>
       </c>
       <c r="M3" t="n">
-        <v>654.257452731038</v>
+        <v>412.087940578466</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432241</v>
+        <v>437.5488689432242</v>
       </c>
       <c r="O3" t="n">
-        <v>377.827495398515</v>
+        <v>377.8274953985151</v>
       </c>
       <c r="P3" t="n">
         <v>283.7115251770163</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634017</v>
+        <v>36.2899188663402</v>
       </c>
       <c r="K4" t="n">
         <v>190.783804432688</v>
@@ -34863,19 +34863,19 @@
         <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413818</v>
+        <v>327.0391185413819</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080647</v>
+        <v>324.7523708080648</v>
       </c>
       <c r="O4" t="n">
-        <v>283.783300858348</v>
+        <v>283.7833008583481</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868047</v>
+        <v>219.0673740868048</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183428</v>
+        <v>67.39303592183431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>386.6592569279867</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594469</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36528,10 +36528,10 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419561</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942243</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
